--- a/biology/Zoologie/1,2-Dichloroéthane/1,2-Dichloroéthane.xlsx
+++ b/biology/Zoologie/1,2-Dichloroéthane/1,2-Dichloroéthane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,2-Dichloro%C3%A9thane</t>
+          <t>1,2-Dichloroéthane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 1,2-dichloroéthane (1,2-DCE), aussi connu sous son ancien nom, le dichlorure d'éthylène, est un composé chimique qui a pour formule C2H4Cl2. C'est un liquide incolore huileux qui possède une odeur proche du chloroforme. C'est un précurseur du chlorure de vinyle, lui-même précurseur du PVC. Comme solvant et dégraissant, il sert à retirer des peintures et à dégraisser des métaux. C'est un hydrocarbure chloré dangereux pour les reins. On l'obtient par l'action du chlore sur l'éthylène.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,2-Dichloro%C3%A9thane</t>
+          <t>1,2-Dichloroéthane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1794, un groupe de quatre amis hollandais, connu sous le nom de Gezelschap der Hollandsche Scheikensleishen (Société de chimistes hollandais), composé du médecin Jan Rudolph Deerman, du marchand Adriaan Paets van Troopstwijkity, du chimiste Anthoni Lauwerenburgest et du botaniste Nicolaas Bondtitigutrud furent les premiers à produire le 1,2-Dichloroéthane à partir du gaz oléfiant (mélange d'éthylène et de chlore). En reconnaissance de leurs recherches et de leurs publications, jouissant à l'époque d'une bonne réputation, le 1,2-Dichloroéthane est connu sous le nom d 'huile hollandaise' (Dutch oil), dans l'histoire de la chimie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,2-Dichloro%C3%A9thane</t>
+          <t>1,2-Dichloroéthane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1,2-Dichloroéthane peut être produit par chloration directe de l'éthylène en phase liquide, catalysée par le chlorure ferrique III, à une température avoisinant 50 °C. 
 H2C=CH2 + Cl2 → Cl-CH2-CH2-Cl
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,2-Dichloro%C3%A9thane</t>
+          <t>1,2-Dichloroéthane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Production de chlorure de vinyle monomère (PVC)
 La production du monomère chlorure de vinyle représente 80 % de la consommation mondiale de 1,2-dichloroéthane, précurseur du chlorure de polyvinyle.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,2-Dichloro%C3%A9thane</t>
+          <t>1,2-Dichloroéthane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +639,12 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1,2-Dichloroéthane est toxique (surtout par inhalation en raison de sa pression de vapeur élevée), corrosif pour les yeux, les voies respiratoires et la peau, hautement inflammable et considéré comme CMR (Cancérigène Mutagène et Reprotoxique). Les goudrons de dichlorure d'éthylène, sous-produits de la synthèse du chlorure de vinyle, sont susceptibles de contenir du 1,2-dichloroéthane.
-Des valeurs limites d'exposition professionnelles ont été déterminées en France[12] par une circulaire en 1987 : VME = 10 ppm ou 40 mg/m3
+Des valeurs limites d'exposition professionnelles ont été déterminées en France par une circulaire en 1987 : VME = 10 ppm ou 40 mg/m3
 </t>
         </is>
       </c>
